--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3961231.603196732</v>
+        <v>4068990.642373441</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498524</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7142738.110689092</v>
+        <v>7131285.255907159</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>98.75690924892176</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885203</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>32.75598617848446</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906503</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>33.85559031833751</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.27834706433272</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>263.8534790963639</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>94.11380544467298</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>227.408734494989</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555391</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1057,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>37.38633321484226</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>127.5044197237611</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>138.6593369632525</v>
+        <v>9.138989061446024</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>84.65019688740291</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>157.7433571660663</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>130.4114987159129</v>
       </c>
       <c r="U13" t="n">
-        <v>80.33989744909022</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H16" t="n">
-        <v>120.7871326503968</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>54.29785174158985</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>112.1382188876854</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>112.2919725119101</v>
+        <v>45.89043756183624</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>100.9410961977583</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>2.029664035374494</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>140.3829797864967</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>28.54004930889326</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808203</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.010065354185</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545288</v>
+        <v>113.541358075969</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317892</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>118.4437570891991</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460538</v>
+        <v>1655.107197965372</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460538</v>
+        <v>1286.14468102496</v>
       </c>
       <c r="D2" t="n">
-        <v>169.6110873393033</v>
+        <v>1286.14468102496</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>1286.14468102496</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>875.1587762353527</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>458.7065149272273</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362818</v>
+        <v>293.3053724073753</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>605.2571586872803</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872916</v>
+        <v>842.8799399054703</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1138.950506463071</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1444.425612698655</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1719.541832015287</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394156</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466516</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2415.172796290573</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2415.172796290573</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2415.172796290573</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>2415.172796290573</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>2041.707038029494</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460538</v>
+        <v>2041.707038029494</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>626.5027693669851</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>467.2653143615296</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>320.7307563884148</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>85.99742130093844</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>201.9455071369548</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>585.1891840496857</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>1041.052645433275</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1304.992176928761</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1590.326047362092</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>1829.130999113549</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128892</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>54.03452733018376</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>187.5436166159864</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>413.9157199341299</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>662.9824862666695</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092698</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1125.148384357424</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1284.388078993468</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1044.683643607215</v>
       </c>
       <c r="V4" t="n">
-        <v>793.4311400478917</v>
+        <v>789.9991554013277</v>
       </c>
       <c r="W4" t="n">
-        <v>504.0139700109311</v>
+        <v>500.5819853643671</v>
       </c>
       <c r="X4" t="n">
-        <v>276.0244191129138</v>
+        <v>272.5924344663498</v>
       </c>
       <c r="Y4" t="n">
-        <v>276.0244191129138</v>
+        <v>51.79985532281972</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>859.685290191162</v>
+        <v>1277.356584430611</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>1277.356584430611</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>1277.356584430611</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W5" t="n">
-        <v>1623.290380428054</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X5" t="n">
-        <v>1249.824622166974</v>
+        <v>1277.356584430611</v>
       </c>
       <c r="Y5" t="n">
-        <v>859.685290191162</v>
+        <v>1277.356584430611</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057878</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034346</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844846</v>
+        <v>573.7192355186005</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159563</v>
+        <v>871.0311846349152</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751764</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>701.9169046966489</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="C7" t="n">
-        <v>701.9169046966489</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="D7" t="n">
-        <v>551.8002652843131</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="E7" t="n">
-        <v>403.88717170192</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="F7" t="n">
-        <v>256.9972242040096</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G7" t="n">
-        <v>89.01075951228822</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
-        <v>89.01075951228822</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080553</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234359</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="W7" t="n">
-        <v>1150.699034738196</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="X7" t="n">
-        <v>922.709483840179</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.9169046966489</v>
+        <v>452.8834591080514</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218651</v>
+        <v>1946.274206107422</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218651</v>
+        <v>1577.31168916701</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953474</v>
+        <v>1568.080387084741</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>1182.292134486497</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>2336.413538083234</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218651</v>
+        <v>1946.274206107422</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251083</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084328</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>515.8852429786114</v>
+        <v>137.3051047040348</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8852429786114</v>
+        <v>137.3051047040348</v>
       </c>
       <c r="D10" t="n">
-        <v>515.8852429786114</v>
+        <v>137.3051047040348</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>137.3051047040348</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>137.3051047040348</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>137.3051047040348</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>137.3051047040348</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V10" t="n">
-        <v>896.0145465323095</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="W10" t="n">
-        <v>736.6778221221415</v>
+        <v>546.9431204322918</v>
       </c>
       <c r="X10" t="n">
-        <v>736.6778221221415</v>
+        <v>318.9535695342745</v>
       </c>
       <c r="Y10" t="n">
-        <v>515.8852429786114</v>
+        <v>318.9535695342745</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5023,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239597</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311364</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U13" t="n">
-        <v>1896.309668945771</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613761</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5306,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8238677453423</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>215.8238677453423</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>215.8238677453423</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>579.1554649516142</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.533952578166</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1804.131916132773</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3228.447361044447</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>4221.331149328841</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>3966.646661122954</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>3677.229491085994</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>3449.239940187977</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>3228.447361044447</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5750,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129205</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M21" t="n">
-        <v>3473.939263755757</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>4101.537227310363</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4653.44695754965</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4653.44695754965</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3053.935450426146</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="C22" t="n">
-        <v>2884.99926749824</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D22" t="n">
-        <v>2734.882628085904</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E22" t="n">
-        <v>2586.969534503511</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
         <v>2419.773435218391</v>
@@ -5932,28 +5934,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X22" t="n">
-        <v>3274.728029569676</v>
+        <v>3408.845990842602</v>
       </c>
       <c r="Y22" t="n">
-        <v>3053.935450426146</v>
+        <v>3188.053411699072</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.981709809277</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>2877.307316025036</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>3474.685803651587</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>4102.283767206194</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.193497445481</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.279733667159</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>988.4871545236284</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990607</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6445,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6546,22 +6548,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2515.675093211831</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>4594.95911601575</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>4375.357651038691</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>4375.357651038691</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>4120.673162832804</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6707,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333972</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3278.063798229818</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>3905.661761784424</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2978.493192213311</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2834.086956247061</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2708.500263796382</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2585.117117175645</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2462.75711663939</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2320.090964315926</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2202.90908011978</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2145.35232372935</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2249.630143176793</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>2949.801601912511</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3395.853105660665</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4648.317395612652</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>4489.992508229213</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4294.92099021381</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>4030.375710519664</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3800.221169275434</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3535.33394620013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3331.874342263769</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>3135.611710081895</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6919,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2223.769289033212</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345484</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7171,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7211,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.342122433612</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2527.96527192868</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213311</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.086956247061</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796381</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639391</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612652</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229213</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.92099021381</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519664</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.33394620013</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263769</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081895</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2817.800993781637</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797176</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,10 +7675,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,19 +7721,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
         <v>1268.578514636218</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7840,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>151.673509307991</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.7601900310701</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>30.3692565058945</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883062413</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>148.4266296017847</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
-        <v>98.24448441976807</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>86.99395161137537</v>
       </c>
       <c r="U13" t="n">
-        <v>205.8445769401539</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H16" t="n">
-        <v>19.50758019582713</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>112.948969357038</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>113.4176828771271</v>
+        <v>179.8192178272009</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>66.30572490086951</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>223.6799913536627</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>145.8014946027474</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>152.4862366927513</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>32.89260457060013</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>100.1408962628957</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>626618.5578342873</v>
+        <v>649431.0009855231</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>626618.5578342873</v>
+        <v>626424.7352896696</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>626618.5578342873</v>
+        <v>626424.7352896696</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>621270.8230833235</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>621270.8230833235</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>621270.8230833235</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>621270.8230833235</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>621270.8230833235</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642837</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900065</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642837</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642833</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642849</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898954</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165055</v>
+        <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
@@ -26436,25 +26438,25 @@
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>14278.33979478852</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478853</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>89345.07489699085</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-517353.3762679866</v>
+        <v>-367772.0797232632</v>
       </c>
       <c r="C6" t="n">
-        <v>597398.407307933</v>
+        <v>425729.5659876305</v>
       </c>
       <c r="D6" t="n">
-        <v>597398.4073079333</v>
+        <v>598493.9257775261</v>
       </c>
       <c r="E6" t="n">
-        <v>192251.1477098578</v>
+        <v>198847.7215886533</v>
       </c>
       <c r="F6" t="n">
+        <v>699736.5893344043</v>
+      </c>
+      <c r="G6" t="n">
+        <v>699736.5893344039</v>
+      </c>
+      <c r="H6" t="n">
+        <v>699736.5893344039</v>
+      </c>
+      <c r="I6" t="n">
+        <v>699736.5893344041</v>
+      </c>
+      <c r="J6" t="n">
+        <v>530322.5725083558</v>
+      </c>
+      <c r="K6" t="n">
+        <v>699736.5893344041</v>
+      </c>
+      <c r="L6" t="n">
+        <v>699736.5893344041</v>
+      </c>
+      <c r="M6" t="n">
+        <v>568852.1324301689</v>
+      </c>
+      <c r="N6" t="n">
         <v>699736.589334404</v>
       </c>
-      <c r="G6" t="n">
+      <c r="O6" t="n">
+        <v>699736.5893344039</v>
+      </c>
+      <c r="P6" t="n">
         <v>699736.5893344043</v>
-      </c>
-      <c r="H6" t="n">
-        <v>699736.5893344042</v>
-      </c>
-      <c r="I6" t="n">
-        <v>699736.589334404</v>
-      </c>
-      <c r="J6" t="n">
-        <v>532131.4115244217</v>
-      </c>
-      <c r="K6" t="n">
-        <v>684171.596221948</v>
-      </c>
-      <c r="L6" t="n">
-        <v>703599.3142155793</v>
-      </c>
-      <c r="M6" t="n">
-        <v>570992.020486654</v>
-      </c>
-      <c r="N6" t="n">
-        <v>703599.3142155809</v>
-      </c>
-      <c r="O6" t="n">
-        <v>703599.3142155809</v>
-      </c>
-      <c r="P6" t="n">
-        <v>699736.5893344037</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498448</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>283.17346082334</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>177.141706050699</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.5536331176046</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.48346005197</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.39178164145505</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>287.8165646275888</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>64.83556544767967</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>121.832234222424</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>67.41026198905831</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.0185786128299</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27855,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>216.0237046574304</v>
+        <v>345.5440525592369</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>19.84046262559822</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>128.7796411705247</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.014998820090883</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>30.87735666625576</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115539</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>255.8942561066888</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>383.519156161136</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>475.7894263014924</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>529.4074115682837</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>537.9737769658669</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>507.9933824485882</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>433.5605990775944</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>325.5859538330896</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>189.3909196325341</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>68.70428561282107</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>13.19815733494785</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072706</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.6131665856741</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>15.57979307743144</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>55.54104253307757</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859903</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126155</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>350.2623325605101</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>408.7396212911962</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>419.5577428240721</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>383.8133674257144</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>308.0440649433287</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>205.9192996028904</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>100.1578341526428</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>29.96386179969214</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>6.502193386993408</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.106129380636454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651424</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351903</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>40.67109842777192</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855564</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711381</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600308</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932499</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>206.9578596840039</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>191.1590805184395</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.5696171351503</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311388</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>60.80993132519945</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>23.56907366567071</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>5.778541795965173</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.07376861867189592</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265705</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.68851486730741</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839335</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712725</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086972</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360044</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586116</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470013</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841577</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425717</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309437</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>76.1932427566251</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288118</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843064</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>248.5245325067415</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,25 +32074,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>535.8585467435948</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32101,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>471.1883883160951</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,10 +32557,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.7358547888812</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32789,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772182</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>400.8433522134843</v>
+        <v>270.4557004614713</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,7 +33268,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>140.7358547888808</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>545.9074025036805</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33970,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33994,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>165.3312853305619</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34210,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>393.3904345522229</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34226,10 +34228,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>243.9449667520763</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>315.1028144241465</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>240.0230113315052</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>299.061178341011</v>
       </c>
       <c r="N2" t="n">
-        <v>440.607173037631</v>
+        <v>308.560713369276</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>277.8951710269015</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>524.1263114938075</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>315.5952546185448</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>39.52180169138441</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>151.6622745597324</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>387.1148251643746</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>460.4681428117061</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>266.6055873691778</v>
       </c>
       <c r="N3" t="n">
-        <v>421.5663560987685</v>
+        <v>288.2160307407388</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>241.2171229812699</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>492.5324261689357</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>276.0148132527179</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>2.257244451882869</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>134.8576659452552</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>228.6586902203469</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550905</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>251.0900320632325</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>215.7442084324792</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000438</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>27.08508117944437</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344173</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873425</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495858</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342477</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922369</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>336.9735885949289</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>251.9966948131504</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225506</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978365</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912598</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701674</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>395.9248450576183</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5501250924112</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>393.2623022991504</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35749,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>328.5921438716507</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36130,7 +36132,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.754080702859717</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36370,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36437,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36606,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>266.868944799154</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36841,7 +36843,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36914,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7540807028592577</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>403.7733685816622</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37642,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.34951124454038</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>254.8360547723488</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>430.2720547770426</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4068990.642373441</v>
+        <v>4064834.456065474</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>15.64579790407919</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885203</v>
@@ -712,16 +712,16 @@
         <v>140.3157839734243</v>
       </c>
       <c r="T2" t="n">
-        <v>32.75598617848446</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.8534790963639</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>160.3858838114362</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>94.11380544467298</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>64.48694615772816</v>
       </c>
       <c r="T5" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>127.5044197237611</v>
+        <v>225.2167696278193</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>9.138989061446024</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>62.39747685266992</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>84.65019688740291</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1577112718208</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>130.4114987159129</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>112.1382188876854</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>45.89043756183624</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>100.9410961977583</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>4.019807611472022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>28.54004930889326</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>41.02686156550228</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.541358075969</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1655.107197965372</v>
+        <v>538.7037775204462</v>
       </c>
       <c r="C2" t="n">
-        <v>1286.14468102496</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="D2" t="n">
-        <v>1286.14468102496</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>169.7412605800345</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353527</v>
+        <v>162.7957598308311</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272273</v>
+        <v>146.9919235640844</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640844</v>
@@ -4360,22 +4360,22 @@
         <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2415.172796290573</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2415.172796290573</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>2415.172796290573</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>2415.172796290573</v>
+        <v>1298.769375845648</v>
       </c>
       <c r="X2" t="n">
-        <v>2041.707038029494</v>
+        <v>925.303617584568</v>
       </c>
       <c r="Y2" t="n">
-        <v>2041.707038029494</v>
+        <v>925.303617584568</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669851</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615296</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884148</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686809</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093844</v>
+        <v>85.99742130093843</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>518.7657712454554</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>349.8295883175485</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
         <v>51.79985532281972</v>
@@ -4521,19 +4521,19 @@
         <v>1311.202309361118</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.683643607215</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="V4" t="n">
-        <v>789.9991554013277</v>
+        <v>1311.202309361118</v>
       </c>
       <c r="W4" t="n">
-        <v>500.5819853643671</v>
+        <v>1149.196366117243</v>
       </c>
       <c r="X4" t="n">
-        <v>272.5924344663498</v>
+        <v>921.2068152192253</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.79985532281972</v>
+        <v>700.4142360756952</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1277.356584430611</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="C5" t="n">
-        <v>1277.356584430611</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D5" t="n">
-        <v>1277.356584430611</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4567,10 +4567,10 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
         <v>804.6133007477383</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2524.854436688735</v>
       </c>
       <c r="T5" t="n">
-        <v>2257.170226019558</v>
+        <v>2524.854436688735</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.590997961805</v>
+        <v>2271.275208630982</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.590997961805</v>
+        <v>1940.212321287412</v>
       </c>
       <c r="W5" t="n">
-        <v>1650.822342691691</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.356584430611</v>
+        <v>1587.443666017298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1277.356584430611</v>
+        <v>1587.443666017298</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186005</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349152</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1219.783862516113</v>
       </c>
       <c r="N6" t="n">
-        <v>1627.746635452983</v>
+        <v>1860.807072136007</v>
       </c>
       <c r="O6" t="n">
-        <v>1962.675316168515</v>
+        <v>2195.735752851538</v>
       </c>
       <c r="P6" t="n">
-        <v>2212.152044033533</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>452.8834591080514</v>
+        <v>789.0613887893439</v>
       </c>
       <c r="C7" t="n">
-        <v>452.8834591080514</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="D7" t="n">
-        <v>452.8834591080514</v>
+        <v>620.1252058614371</v>
       </c>
       <c r="E7" t="n">
-        <v>452.8834591080514</v>
+        <v>472.2121122790439</v>
       </c>
       <c r="F7" t="n">
-        <v>305.993511610141</v>
+        <v>325.3221647811336</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
@@ -4725,52 +4725,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>581.6758022633657</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>452.8834591080514</v>
+        <v>1419.491983661131</v>
       </c>
       <c r="X7" t="n">
-        <v>452.8834591080514</v>
+        <v>1191.502432763114</v>
       </c>
       <c r="Y7" t="n">
-        <v>452.8834591080514</v>
+        <v>970.7098536195837</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1946.274206107422</v>
+        <v>439.3493107718989</v>
       </c>
       <c r="C8" t="n">
-        <v>1577.31168916701</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="D8" t="n">
-        <v>1568.080387084741</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.292134486497</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
-        <v>771.3062296968895</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104791</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135514</v>
+        <v>447.8319447135523</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477401</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187504</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539973</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507463</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140987</v>
+        <v>2526.96501174435</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140987</v>
+        <v>2526.96501174435</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083234</v>
+        <v>2273.385783686597</v>
       </c>
       <c r="V8" t="n">
-        <v>2336.413538083234</v>
+        <v>1942.322896343026</v>
       </c>
       <c r="W8" t="n">
-        <v>2336.413538083234</v>
+        <v>1589.554241072912</v>
       </c>
       <c r="X8" t="n">
-        <v>2336.413538083234</v>
+        <v>1216.088482811832</v>
       </c>
       <c r="Y8" t="n">
-        <v>1946.274206107422</v>
+        <v>825.9491508360206</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>599.2586963421434</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1194.69994069158</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1835.723150311474</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2170.651831027005</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>137.3051047040348</v>
+        <v>772.9594275327768</v>
       </c>
       <c r="C10" t="n">
-        <v>137.3051047040348</v>
+        <v>604.0232446048699</v>
       </c>
       <c r="D10" t="n">
-        <v>137.3051047040348</v>
+        <v>453.9066051925342</v>
       </c>
       <c r="E10" t="n">
-        <v>137.3051047040348</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="F10" t="n">
-        <v>137.3051047040348</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="G10" t="n">
-        <v>137.3051047040348</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H10" t="n">
-        <v>137.3051047040348</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281973</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317423</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1125.478067458854</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>836.3602904692525</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>546.9431204322918</v>
+        <v>1403.390022404564</v>
       </c>
       <c r="X10" t="n">
-        <v>318.9535695342745</v>
+        <v>1175.400471506547</v>
       </c>
       <c r="Y10" t="n">
-        <v>318.9535695342745</v>
+        <v>954.6078923630165</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5062,7 +5062,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2248.188593250933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5308,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,10 +5752,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3006.404946868832</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3408.845990842602</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3188.053411699072</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,7 +6208,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4594.95911601575</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4375.357651038691</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4375.357651038691</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>4120.673162832804</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3831.255992795844</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3603.266441897827</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3382.473862754297</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,37 +6691,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6919,34 +6919,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2338.476105524075</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>135.9796239950296</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7736,16 +7736,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017847</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>256.7871481632765</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>253.1450992870219</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>231.4498533910216</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>253.1450992870219</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906578</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>-1.301481453960552e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>86.99395161137537</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>139.9994244361426</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>179.8192178272009</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>66.30572490086951</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>144.5956654067403</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>152.4862366927513</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>176.378588761786</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.89260457060013</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>57.2291039219418</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526154</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>610849.4454526156</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642837</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
@@ -26346,16 +26346,16 @@
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>939682.9358753958</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898951</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>159785.8388151603</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
@@ -26441,25 +26441,25 @@
         <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169503</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367772.0797232632</v>
+        <v>-367772.0797232635</v>
       </c>
       <c r="C6" t="n">
-        <v>425729.5659876305</v>
+        <v>425729.5659876303</v>
       </c>
       <c r="D6" t="n">
         <v>598493.9257775261</v>
       </c>
       <c r="E6" t="n">
-        <v>198847.7215886533</v>
+        <v>198500.3423342963</v>
       </c>
       <c r="F6" t="n">
-        <v>699736.5893344043</v>
+        <v>699389.210080047</v>
       </c>
       <c r="G6" t="n">
-        <v>699736.5893344039</v>
+        <v>699389.210080047</v>
       </c>
       <c r="H6" t="n">
-        <v>699736.5893344039</v>
+        <v>699389.210080047</v>
       </c>
       <c r="I6" t="n">
-        <v>699736.5893344041</v>
+        <v>699389.2100800473</v>
       </c>
       <c r="J6" t="n">
-        <v>530322.5725083558</v>
+        <v>529975.1932539991</v>
       </c>
       <c r="K6" t="n">
-        <v>699736.5893344041</v>
+        <v>699389.210080047</v>
       </c>
       <c r="L6" t="n">
-        <v>699736.5893344041</v>
+        <v>699389.2100800471</v>
       </c>
       <c r="M6" t="n">
-        <v>568852.1324301689</v>
+        <v>568504.7531758117</v>
       </c>
       <c r="N6" t="n">
-        <v>699736.589334404</v>
+        <v>699389.210080047</v>
       </c>
       <c r="O6" t="n">
-        <v>699736.5893344039</v>
+        <v>699389.2100800468</v>
       </c>
       <c r="P6" t="n">
-        <v>699736.5893344043</v>
+        <v>699389.2100800471</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498446</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>749.9809564976077</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.7254341522367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918292</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>396.641940790965</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>177.141706050699</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27593,13 +27593,13 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>22.39178164145505</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>126.1371145251548</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>287.8165646275888</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>58.44846261672488</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>159.0185786128299</v>
+        <v>61.3062287087717</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>345.5440525592369</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>60.53793192178312</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>19.84046262559822</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.3652870647702</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31527,37 +31527,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793977</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027921</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179232</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,7 +31600,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31621,19 +31621,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.5439298528499</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31679,25 +31679,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843062</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523071</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,34 +31837,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,31 +32074,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32481,7 +32481,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32554,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,13 +32569,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,10 +33022,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>270.4557004614713</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>610.054682604365</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>400.8433522134843</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755199</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949289</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>626.7930971454234</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225506</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755194</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961986</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>601.4558023731685</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025567</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978362</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,10 +35339,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35351,7 +35351,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643214</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36202,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,13 +36217,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>136.4812930471411</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>471.5003028244908</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>266.868944799154</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4064834.456065474</v>
+        <v>4066594.98636826</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7131285.255907159</v>
+        <v>7131285.255907158</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.358059209034398</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.64579790407919</v>
+        <v>12.28773869504416</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>160.3858838114362</v>
+        <v>160.3858838114389</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>276.7159719355942</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>64.48694615772816</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>225.2167696278193</v>
+        <v>77.56978581699211</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>62.39747685266831</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>62.39747685266992</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>100.5827519824185</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>241.1577112718208</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>130.4114987159128</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>123.9815576456779</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576164</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670954</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>538.7037775204462</v>
+        <v>538.7037775204453</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7412605800345</v>
+        <v>169.7412605800336</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7412605800345</v>
+        <v>166.349281581009</v>
       </c>
       <c r="E2" t="n">
-        <v>169.7412605800345</v>
+        <v>166.349281581009</v>
       </c>
       <c r="F2" t="n">
-        <v>162.7957598308311</v>
+        <v>159.4037808318055</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073758</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872803</v>
+        <v>605.2571586872723</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054703</v>
+        <v>842.8799399054635</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463071</v>
+        <v>1138.950506463065</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.425612698655</v>
+        <v>1444.42561269865</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015287</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394156</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466516</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459333</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115762</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>1298.769375845648</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>925.303617584568</v>
+        <v>925.3036175845671</v>
       </c>
       <c r="Y2" t="n">
-        <v>925.303617584568</v>
+        <v>925.3036175845671</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093824</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>585.1891840496866</v>
       </c>
       <c r="L3" t="n">
-        <v>1041.052645433275</v>
+        <v>1041.05264543327</v>
       </c>
       <c r="M3" t="n">
-        <v>1304.992176928761</v>
+        <v>1304.992176928757</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362092</v>
+        <v>1590.326047362089</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140985</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4473,58 +4473,58 @@
         <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="W4" t="n">
         <v>1149.196366117243</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1528.404814889291</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>1159.44229794888</v>
       </c>
       <c r="D5" t="n">
-        <v>860.2154504701355</v>
+        <v>801.1765993421293</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718913</v>
+        <v>415.3883467438851</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>408.4428459946816</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>396.8014082352176</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104779</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2524.854436688735</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="T5" t="n">
-        <v>2524.854436688735</v>
+        <v>2465.815585560729</v>
       </c>
       <c r="U5" t="n">
-        <v>2271.275208630982</v>
+        <v>2212.236357502976</v>
       </c>
       <c r="V5" t="n">
-        <v>1940.212321287412</v>
+        <v>1881.173470159405</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.443666017298</v>
+        <v>1528.404814889291</v>
       </c>
       <c r="X5" t="n">
-        <v>1587.443666017298</v>
+        <v>1528.404814889291</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.443666017298</v>
+        <v>1528.404814889291</v>
       </c>
     </row>
     <row r="6">
@@ -4640,22 +4640,22 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>301.9467472258286</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>599.2586963421431</v>
       </c>
       <c r="M6" t="n">
-        <v>1219.783862516113</v>
+        <v>1240.281905962037</v>
       </c>
       <c r="N6" t="n">
         <v>1860.807072136007</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.0613887893439</v>
+        <v>683.5152680691407</v>
       </c>
       <c r="C7" t="n">
-        <v>620.1252058614371</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="D7" t="n">
-        <v>620.1252058614371</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>472.2121122790439</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3221647811336</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4746,31 +4746,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153878</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W7" t="n">
-        <v>1419.491983661131</v>
+        <v>1313.945862940928</v>
       </c>
       <c r="X7" t="n">
-        <v>1191.502432763114</v>
+        <v>1085.95631204291</v>
       </c>
       <c r="Y7" t="n">
-        <v>970.7098536195837</v>
+        <v>865.1637328993804</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>439.3493107718989</v>
+        <v>502.3770651685335</v>
       </c>
       <c r="C8" t="n">
-        <v>70.38679383148718</v>
+        <v>133.4145482281218</v>
       </c>
       <c r="D8" t="n">
-        <v>70.38679383148718</v>
+        <v>133.4145482281218</v>
       </c>
       <c r="E8" t="n">
-        <v>70.38679383148718</v>
+        <v>133.4145482281218</v>
       </c>
       <c r="F8" t="n">
-        <v>63.44129308228371</v>
+        <v>126.4690474789183</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>114.8276097194544</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>114.8276097194544</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2526.96501174435</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2526.96501174435</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2273.385783686597</v>
+        <v>2336.413538083232</v>
       </c>
       <c r="V8" t="n">
-        <v>1942.322896343026</v>
+        <v>2005.350650739661</v>
       </c>
       <c r="W8" t="n">
-        <v>1589.554241072912</v>
+        <v>1652.581995469547</v>
       </c>
       <c r="X8" t="n">
-        <v>1216.088482811832</v>
+        <v>1279.116237208467</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.9491508360206</v>
+        <v>888.9769052326553</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>115.285257822616</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>563.7673318682814</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594485</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.69994069158</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1835.723150311474</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2170.651831027005</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2420.128558892024</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.9594275327768</v>
+        <v>472.4514170392426</v>
       </c>
       <c r="C10" t="n">
-        <v>604.0232446048699</v>
+        <v>303.5152341113358</v>
       </c>
       <c r="D10" t="n">
-        <v>453.9066051925342</v>
+        <v>153.398594699</v>
       </c>
       <c r="E10" t="n">
-        <v>305.9935116101411</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="F10" t="n">
-        <v>305.9935116101411</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>305.9935116101411</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080549</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N10" t="n">
         <v>1130.141273750633</v>
@@ -4983,31 +4983,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W10" t="n">
-        <v>1403.390022404564</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="X10" t="n">
-        <v>1175.400471506547</v>
+        <v>874.8924610130125</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.6078923630165</v>
+        <v>654.0998818694824</v>
       </c>
     </row>
     <row r="11">
@@ -5035,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5308,7 +5308,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6126,22 +6126,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6217,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355936</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7259,7 +7259,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
         <v>1520.445529061503</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7496,7 +7496,7 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
         <v>1520.445529061503</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7663,13 +7663,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7830,22 +7830,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
         <v>974.1018203925706</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.673509307991</v>
+        <v>151.6735093079815</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>248.7601900310701</v>
+        <v>248.7601900310634</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8303,10 +8303,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>256.7871481632765</v>
+        <v>277.4922425530994</v>
       </c>
       <c r="N6" t="n">
-        <v>253.1450992870219</v>
+        <v>232.4400048971996</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>35.38972270187122</v>
       </c>
       <c r="M9" t="n">
-        <v>231.4498533910216</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>253.1450992870219</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906583</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-1.972915003185951e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.301481453960552e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>35.112639576356</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>43.2652634529499</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.2291039219418</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>649431.0009855231</v>
+        <v>649431.0009855229</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610849.4454526155</v>
+        <v>610849.4454526156</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610849.4454526154</v>
+        <v>610849.4454526155</v>
       </c>
     </row>
     <row r="10">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="F2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="G2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="K2" t="n">
         <v>807146.5996900062</v>
@@ -26346,13 +26346,13 @@
         <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900059</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898951</v>
+        <v>172764.3597898933</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26432,10 +26432,10 @@
         <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695023</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26444,16 +26444,16 @@
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.48053169503</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695077</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367772.0797232635</v>
+        <v>-367772.0797232654</v>
       </c>
       <c r="C6" t="n">
-        <v>425729.5659876303</v>
+        <v>425729.5659876321</v>
       </c>
       <c r="D6" t="n">
-        <v>598493.9257775261</v>
+        <v>598493.9257775256</v>
       </c>
       <c r="E6" t="n">
-        <v>198500.3423342963</v>
+        <v>198812.9836632176</v>
       </c>
       <c r="F6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089679</v>
       </c>
       <c r="G6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="H6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089682</v>
       </c>
       <c r="I6" t="n">
-        <v>699389.2100800473</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="J6" t="n">
-        <v>529975.1932539991</v>
+        <v>530287.8345829203</v>
       </c>
       <c r="K6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089684</v>
       </c>
       <c r="L6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089686</v>
       </c>
       <c r="M6" t="n">
-        <v>568504.7531758117</v>
+        <v>568817.3945047333</v>
       </c>
       <c r="N6" t="n">
-        <v>699389.210080047</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="O6" t="n">
-        <v>699389.2100800468</v>
+        <v>699701.8514089683</v>
       </c>
       <c r="P6" t="n">
-        <v>699389.2100800471</v>
+        <v>699701.8514089683</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522367</v>
+        <v>189.7254341522348</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,22 +26986,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>351.3249824116485</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>396.641940790965</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>126.1371145251548</v>
+        <v>126.1371145251521</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>24.0703153128656</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>58.44846261672488</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>61.3062287087717</v>
+        <v>208.9532125195989</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>2.438088595011443</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>60.53793192178312</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>45.85121066415064</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28028,10 +28028,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>45.3652870647702</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31436,28 +31436,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H8" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R8" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837062</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H9" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q9" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S9" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31673,28 +31673,28 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H10" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J10" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K10" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M10" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O10" t="n">
         <v>239.5172944561276</v>
@@ -31706,16 +31706,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S10" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>595.3275373121714</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,19 +33976,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,22 +34213,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>746.4857620875795</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520769</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241465</v>
+        <v>315.1028144241378</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410121</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692773</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269026</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.1263114938085</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185448</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138441</v>
+        <v>39.52180169138484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>460.4681428117061</v>
+        <v>460.4681428117001</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691787</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407388</v>
+        <v>288.2160307407397</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812708</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>492.5324261689364</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527184</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755199</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>188.546958993144</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M6" t="n">
-        <v>626.7930971454234</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="N6" t="n">
-        <v>647.4981915352465</v>
+        <v>626.7930971454241</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>118.0296862297621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35108,13 +35108,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>64.12666919171349</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057226</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>335.7048228193607</v>
       </c>
       <c r="M9" t="n">
-        <v>601.4558023731685</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N9" t="n">
-        <v>647.4981915352465</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225502</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L10" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M10" t="n">
         <v>305.2126850597957</v>
@@ -35345,13 +35345,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288382</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>615.1440500042462</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
